--- a/results/I3_N5_M3_T45_C150_DepLowerLeft_s2_P3_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepLowerLeft_s2_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>602.4621209282627</v>
+        <v>1792.996863021594</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.832451964769646e-05</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.2870033872534</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.526799840247489</v>
+        <v>12.28173377703811</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.521917381247916</v>
+        <v>12.06495752168237</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>516.9200000000087</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.26000000000001</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>23.80648056830875</v>
       </c>
     </row>
     <row r="4">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.49313212343961</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.5000066666637</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>31.95858503259002</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.62543159826637</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.27346552285658</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1143,15 +1143,99 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40.97499999999985</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -1265,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
@@ -1276,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>36.46999999999986</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
@@ -1287,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>35.41999999999985</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
@@ -1298,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>39.46999999999986</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -1309,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>152.2400000000004</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
@@ -1320,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.0150000000004</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
@@ -1331,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>153.1550000000004</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15">
@@ -1342,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>152.2950000000004</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
@@ -1353,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>155.3900000000004</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -1364,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>199.5750000000004</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1375,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>203.5550000000005</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1386,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>184.9550000000004</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1397,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>203.4850000000004</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1408,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.7950000000004</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1419,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>158.4050000000011</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1430,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>156.8400000000011</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1441,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>147.0950000000011</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1452,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>155.8350000000011</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1463,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>158.4750000000011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1474,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.23500000000072</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
@@ -1485,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29">
@@ -1496,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52500000000075</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
@@ -1507,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78500000000072</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
@@ -1518,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
@@ -1529,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>199.5750000000004</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
@@ -1540,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>203.5550000000005</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -1551,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>184.9550000000004</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
@@ -1562,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>203.4850000000004</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
@@ -1573,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>203.7950000000004</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
@@ -1584,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.2400000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1595,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>150.0150000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1606,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>153.1550000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1617,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>152.2950000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1628,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>155.3900000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1730,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>49.57500000000041</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -1741,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>53.55500000000046</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
@@ -1752,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>34.95500000000045</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5">
@@ -1763,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>53.48500000000044</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
@@ -1774,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>53.79500000000044</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -1785,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.240000000000435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1796,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0150000000004411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1807,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3.155000000000427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1818,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>2.295000000000442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1829,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.390000000000441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1931,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1942,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1953,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1964,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1975,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2041,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2052,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2063,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2074,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2085,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2096,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2107,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2118,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2140,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2209,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2236,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2247,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2258,7 +2342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2269,7 +2353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2280,7 +2364,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2291,7 +2375,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2302,7 +2386,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2313,7 +2397,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2324,7 +2408,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2335,7 +2419,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2346,7 +2430,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2357,7 +2441,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2368,10 +2452,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2379,12 +2463,23 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
